--- a/aemet_vino_clean.xlsx
+++ b/aemet_vino_clean.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>precipitacion_total_mensual</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>fecha_mes</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>precipitacion_total_mensual</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -491,12 +491,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
         <is>
           <t>2003-1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -515,13 +515,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>2003-2</t>
         </is>
-      </c>
-      <c r="C3" t="n">
-        <v>42.6</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -541,13 +541,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>29</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>2003-3</t>
         </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -567,13 +567,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>2003-4</t>
         </is>
-      </c>
-      <c r="C5" t="n">
-        <v>38.2</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -593,13 +593,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>2003-5</t>
         </is>
-      </c>
-      <c r="C6" t="n">
-        <v>26.2</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -619,13 +619,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>2003-6</t>
         </is>
-      </c>
-      <c r="C7" t="n">
-        <v>19.4</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -645,13 +645,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>2003-7</t>
         </is>
-      </c>
-      <c r="C8" t="n">
-        <v>11</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -671,13 +671,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>2003-8</t>
         </is>
-      </c>
-      <c r="C9" t="n">
-        <v>27.2</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -697,13 +697,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>2003-9</t>
         </is>
-      </c>
-      <c r="C10" t="n">
-        <v>39.6</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -723,13 +723,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>121.2</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>2003-10</t>
         </is>
-      </c>
-      <c r="C11" t="n">
-        <v>121.2</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -749,13 +749,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>2003-11</t>
         </is>
-      </c>
-      <c r="C12" t="n">
-        <v>48.8</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -775,13 +775,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>2003-12</t>
         </is>
-      </c>
-      <c r="C13" t="n">
-        <v>26.2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -809,12 +809,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
         <is>
           <t>2003-13</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -833,13 +833,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>2004-1</t>
         </is>
-      </c>
-      <c r="C15" t="n">
-        <v>22.6</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>2004-2</t>
         </is>
-      </c>
-      <c r="C16" t="n">
-        <v>13.2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>2004-3</t>
         </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.6</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -935,13 +935,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>2004-4</t>
         </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -969,13 +969,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>2004-5</t>
         </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1003,13 +1003,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>2004-6</t>
         </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>12</v>
@@ -1037,13 +1037,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>2004-7</t>
         </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>18</v>
@@ -1071,12 +1071,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
         <is>
           <t>2004-8</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -1095,12 +1095,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
         <is>
           <t>2004-9</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
         <v>3</v>
       </c>
@@ -1127,12 +1127,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
         <is>
           <t>2004-10</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
         <v>1</v>
       </c>
@@ -1159,13 +1159,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>33</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>2004-11</t>
         </is>
-      </c>
-      <c r="C25" t="n">
-        <v>33</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1193,12 +1193,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
         <is>
           <t>2004-12</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
         <v>0</v>
       </c>
@@ -1225,12 +1225,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
         <is>
           <t>2004-13</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -1249,13 +1249,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>2005-1</t>
         </is>
-      </c>
-      <c r="C28" t="n">
-        <v>2.8</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1283,13 +1283,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>2005-2</t>
         </is>
-      </c>
-      <c r="C29" t="n">
-        <v>7.2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1317,13 +1317,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>2005-3</t>
         </is>
-      </c>
-      <c r="C30" t="n">
-        <v>9.4</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>2005-4</t>
         </is>
-      </c>
-      <c r="C31" t="n">
-        <v>35.4</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1385,13 +1385,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>2005-5</t>
         </is>
-      </c>
-      <c r="C32" t="n">
-        <v>17.6</v>
       </c>
       <c r="D32" t="n">
         <v>4</v>
@@ -1419,13 +1419,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>2005-6</t>
         </is>
-      </c>
-      <c r="C33" t="n">
-        <v>29.2</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
@@ -1445,13 +1445,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>2005-7</t>
         </is>
-      </c>
-      <c r="C34" t="n">
-        <v>3.4</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
@@ -1471,13 +1471,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>2005-8</t>
         </is>
-      </c>
-      <c r="C35" t="n">
-        <v>24.4</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
@@ -1497,13 +1497,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>2005-9</t>
         </is>
-      </c>
-      <c r="C36" t="n">
-        <v>3</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
@@ -1523,13 +1523,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>2005-10</t>
         </is>
-      </c>
-      <c r="C37" t="n">
-        <v>97.2</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
@@ -1549,13 +1549,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>2005-11</t>
         </is>
-      </c>
-      <c r="C38" t="n">
-        <v>29.6</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
@@ -1575,13 +1575,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>2005-12</t>
         </is>
-      </c>
-      <c r="C39" t="n">
-        <v>17.4</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>276.6</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>2005-13</t>
         </is>
-      </c>
-      <c r="C40" t="n">
-        <v>276.6</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
@@ -1635,13 +1635,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>2006-1</t>
         </is>
-      </c>
-      <c r="C41" t="n">
-        <v>19.4</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>2006-2</t>
         </is>
-      </c>
-      <c r="C42" t="n">
-        <v>38.4</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>2006-3</t>
         </is>
-      </c>
-      <c r="C43" t="n">
-        <v>30.4</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1737,13 +1737,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>2006-4</t>
         </is>
-      </c>
-      <c r="C44" t="n">
-        <v>45.4</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>2006-5</t>
         </is>
-      </c>
-      <c r="C45" t="n">
-        <v>21.6</v>
       </c>
       <c r="D45" t="n">
         <v>3</v>
@@ -1805,13 +1805,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>2006-6</t>
         </is>
-      </c>
-      <c r="C46" t="n">
-        <v>68.2</v>
       </c>
       <c r="D46" t="n">
         <v>8</v>
@@ -1839,13 +1839,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>2006-7</t>
         </is>
-      </c>
-      <c r="C47" t="n">
-        <v>7.4</v>
       </c>
       <c r="D47" t="n">
         <v>25</v>
@@ -1873,13 +1873,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>2006-8</t>
         </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>7</v>
@@ -1907,13 +1907,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>2006-9</t>
         </is>
-      </c>
-      <c r="C49" t="n">
-        <v>20.6</v>
       </c>
       <c r="D49" t="n">
         <v>12</v>
@@ -1941,13 +1941,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>2006-10</t>
         </is>
-      </c>
-      <c r="C50" t="n">
-        <v>65.59999999999999</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1975,13 +1975,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>2006-11</t>
         </is>
-      </c>
-      <c r="C51" t="n">
-        <v>38.6</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
@@ -2001,13 +2001,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>2006-12</t>
         </is>
-      </c>
-      <c r="C52" t="n">
-        <v>17.4</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -2035,13 +2035,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>373</v>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>2006-13</t>
         </is>
-      </c>
-      <c r="C53" t="n">
-        <v>373</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
@@ -2061,13 +2061,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>2007-1</t>
         </is>
-      </c>
-      <c r="C54" t="n">
-        <v>18.4</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>42</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>2007-2</t>
         </is>
-      </c>
-      <c r="C55" t="n">
-        <v>42</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>15</v>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>2007-3</t>
         </is>
-      </c>
-      <c r="C56" t="n">
-        <v>15</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2163,13 +2163,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>2007-4</t>
         </is>
-      </c>
-      <c r="C57" t="n">
-        <v>15.8</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -2197,12 +2197,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
         <is>
           <t>2007-5</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
         <v>0</v>
       </c>
@@ -2229,13 +2229,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>31</v>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>2007-6</t>
         </is>
-      </c>
-      <c r="C59" t="n">
-        <v>31</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -2263,13 +2263,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>2007-7</t>
         </is>
-      </c>
-      <c r="C60" t="n">
-        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>12</v>
@@ -2297,13 +2297,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>10</v>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>2007-8</t>
         </is>
-      </c>
-      <c r="C61" t="n">
-        <v>10</v>
       </c>
       <c r="D61" t="n">
         <v>8</v>
@@ -2331,12 +2331,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
         <is>
           <t>2007-9</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
         <v>3</v>
       </c>
@@ -2363,12 +2363,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
         <is>
           <t>2007-10</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
         <v>0</v>
       </c>
@@ -2395,13 +2395,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>2007-11</t>
         </is>
-      </c>
-      <c r="C64" t="n">
-        <v>34.2</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -2429,12 +2429,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
         <is>
           <t>2007-12</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
@@ -2453,12 +2453,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
         <is>
           <t>2007-13</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
@@ -2477,13 +2477,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>32</v>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>2008-1</t>
         </is>
-      </c>
-      <c r="C67" t="n">
-        <v>32</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -2511,13 +2511,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>2008-2</t>
         </is>
-      </c>
-      <c r="C68" t="n">
-        <v>23.8</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -2545,13 +2545,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>2008-3</t>
         </is>
-      </c>
-      <c r="C69" t="n">
-        <v>10.2</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -2579,12 +2579,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
         <is>
           <t>2008-4</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
@@ -2603,13 +2603,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>2008-5</t>
         </is>
-      </c>
-      <c r="C71" t="n">
-        <v>127.8</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -2637,13 +2637,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>2008-6</t>
         </is>
-      </c>
-      <c r="C72" t="n">
-        <v>77.8</v>
       </c>
       <c r="D72" t="n">
         <v>6</v>
@@ -2671,13 +2671,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>2008-7</t>
         </is>
-      </c>
-      <c r="C73" t="n">
-        <v>8.4</v>
       </c>
       <c r="D73" t="n">
         <v>9</v>
@@ -2705,12 +2705,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
         <is>
           <t>2008-8</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
@@ -2729,13 +2729,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>29</v>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>2008-9</t>
         </is>
-      </c>
-      <c r="C75" t="n">
-        <v>29</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>2008-10</t>
         </is>
-      </c>
-      <c r="C76" t="n">
-        <v>60.4</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -2797,12 +2797,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
         <is>
           <t>2008-11</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
@@ -2821,12 +2821,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
         <is>
           <t>2008-12</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
@@ -2845,12 +2845,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
         <is>
           <t>2008-13</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
@@ -2869,12 +2869,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
         <is>
           <t>2009-1</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
@@ -2893,12 +2893,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
         <is>
           <t>2009-2</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
@@ -2917,13 +2917,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>2009-3</t>
         </is>
-      </c>
-      <c r="C82" t="n">
-        <v>7.4</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -2951,13 +2951,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C83" t="inlineStr">
         <is>
           <t>2009-4</t>
         </is>
-      </c>
-      <c r="C83" t="n">
-        <v>19.4</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -2985,12 +2985,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
         <is>
           <t>2009-5</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
         <v>2</v>
       </c>
@@ -3017,13 +3017,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C85" t="inlineStr">
         <is>
           <t>2009-6</t>
         </is>
-      </c>
-      <c r="C85" t="n">
-        <v>27.4</v>
       </c>
       <c r="D85" t="n">
         <v>6</v>
@@ -3051,13 +3051,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>2009-7</t>
         </is>
-      </c>
-      <c r="C86" t="n">
-        <v>12.2</v>
       </c>
       <c r="D86" t="n">
         <v>15</v>
@@ -3085,13 +3085,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C87" t="inlineStr">
         <is>
           <t>2009-8</t>
         </is>
-      </c>
-      <c r="C87" t="n">
-        <v>24.6</v>
       </c>
       <c r="D87" t="n">
         <v>19</v>
@@ -3119,13 +3119,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>2009-9</t>
         </is>
-      </c>
-      <c r="C88" t="n">
-        <v>8.199999999999999</v>
       </c>
       <c r="D88" t="n">
         <v>6</v>
@@ -3153,13 +3153,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>2009-10</t>
         </is>
-      </c>
-      <c r="C89" t="n">
-        <v>35.6</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -3187,13 +3187,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>2009-11</t>
         </is>
-      </c>
-      <c r="C90" t="n">
-        <v>16.4</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -3221,13 +3221,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>91</v>
+      </c>
+      <c r="C91" t="inlineStr">
         <is>
           <t>2009-12</t>
         </is>
-      </c>
-      <c r="C91" t="n">
-        <v>91</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -3255,12 +3255,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
         <is>
           <t>2009-13</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
@@ -3279,13 +3279,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="C93" t="inlineStr">
         <is>
           <t>2010-1</t>
         </is>
-      </c>
-      <c r="C93" t="n">
-        <v>38.4</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>2010-2</t>
         </is>
-      </c>
-      <c r="C94" t="n">
-        <v>68.59999999999999</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -3347,13 +3347,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="C95" t="inlineStr">
         <is>
           <t>2010-3</t>
         </is>
-      </c>
-      <c r="C95" t="n">
-        <v>45.2</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -3381,13 +3381,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="C96" t="inlineStr">
         <is>
           <t>2010-4</t>
         </is>
-      </c>
-      <c r="C96" t="n">
-        <v>58.6</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -3415,13 +3415,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>43</v>
+      </c>
+      <c r="C97" t="inlineStr">
         <is>
           <t>2010-5</t>
         </is>
-      </c>
-      <c r="C97" t="n">
-        <v>43</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -3449,13 +3449,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="C98" t="inlineStr">
         <is>
           <t>2010-6</t>
         </is>
-      </c>
-      <c r="C98" t="n">
-        <v>69.2</v>
       </c>
       <c r="D98" t="n">
         <v>3</v>
@@ -3483,12 +3483,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
         <is>
           <t>2010-7</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
@@ -3507,13 +3507,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C100" t="inlineStr">
         <is>
           <t>2010-8</t>
         </is>
-      </c>
-      <c r="C100" t="n">
-        <v>0.6</v>
       </c>
       <c r="D100" t="n">
         <v>12</v>
@@ -3541,13 +3541,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>17</v>
+      </c>
+      <c r="C101" t="inlineStr">
         <is>
           <t>2010-9</t>
         </is>
-      </c>
-      <c r="C101" t="n">
-        <v>17</v>
       </c>
       <c r="D101" t="n">
         <v>4</v>
@@ -3577,13 +3577,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C102" t="inlineStr">
         <is>
           <t>2010-10</t>
         </is>
-      </c>
-      <c r="C102" t="n">
-        <v>39.4</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -3613,13 +3613,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C103" t="inlineStr">
         <is>
           <t>2010-11</t>
         </is>
-      </c>
-      <c r="C103" t="n">
-        <v>27.4</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -3649,13 +3649,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="C104" t="inlineStr">
         <is>
           <t>2010-12</t>
         </is>
-      </c>
-      <c r="C104" t="n">
-        <v>70.2</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -3685,12 +3685,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
         <is>
           <t>2010-13</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
@@ -3709,13 +3709,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C106" t="inlineStr">
         <is>
           <t>2011-1</t>
         </is>
-      </c>
-      <c r="C106" t="n">
-        <v>34.2</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -3745,13 +3745,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C107" t="inlineStr">
         <is>
           <t>2011-2</t>
         </is>
-      </c>
-      <c r="C107" t="n">
-        <v>22.8</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -3781,13 +3781,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C108" t="inlineStr">
         <is>
           <t>2011-3</t>
         </is>
-      </c>
-      <c r="C108" t="n">
-        <v>25.6</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -3817,13 +3817,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C109" t="inlineStr">
         <is>
           <t>2011-4</t>
         </is>
-      </c>
-      <c r="C109" t="n">
-        <v>39.4</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -3853,13 +3853,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C110" t="inlineStr">
         <is>
           <t>2011-5</t>
         </is>
-      </c>
-      <c r="C110" t="n">
-        <v>15.4</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -3889,13 +3889,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>16</v>
+      </c>
+      <c r="C111" t="inlineStr">
         <is>
           <t>2011-6</t>
         </is>
-      </c>
-      <c r="C111" t="n">
-        <v>16</v>
       </c>
       <c r="D111" t="n">
         <v>6</v>
@@ -3925,13 +3925,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C112" t="inlineStr">
         <is>
           <t>2011-7</t>
         </is>
-      </c>
-      <c r="C112" t="n">
-        <v>2.6</v>
       </c>
       <c r="D112" t="n">
         <v>8</v>
@@ -3961,13 +3961,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C113" t="inlineStr">
         <is>
           <t>2011-8</t>
         </is>
-      </c>
-      <c r="C113" t="n">
-        <v>16.4</v>
       </c>
       <c r="D113" t="n">
         <v>14</v>
@@ -3997,13 +3997,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C114" t="inlineStr">
         <is>
           <t>2011-9</t>
         </is>
-      </c>
-      <c r="C114" t="n">
-        <v>4.4</v>
       </c>
       <c r="D114" t="n">
         <v>7</v>
@@ -4033,13 +4033,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C115" t="inlineStr">
         <is>
           <t>2011-10</t>
         </is>
-      </c>
-      <c r="C115" t="n">
-        <v>13.6</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -4069,13 +4069,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C116" t="inlineStr">
         <is>
           <t>2011-11</t>
         </is>
-      </c>
-      <c r="C116" t="n">
-        <v>37.3</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -4105,13 +4105,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C117" t="inlineStr">
         <is>
           <t>2011-12</t>
         </is>
-      </c>
-      <c r="C117" t="n">
-        <v>9.6</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -4141,13 +4141,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="C118" t="inlineStr">
         <is>
           <t>2011-13</t>
         </is>
-      </c>
-      <c r="C118" t="n">
-        <v>237.3</v>
       </c>
       <c r="D118" t="n">
         <v>36</v>
@@ -4177,13 +4177,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C119" t="inlineStr">
         <is>
           <t>2012-1</t>
         </is>
-      </c>
-      <c r="C119" t="n">
-        <v>8.4</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -4213,13 +4213,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C120" t="inlineStr">
         <is>
           <t>2012-2</t>
         </is>
-      </c>
-      <c r="C120" t="n">
-        <v>6.2</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -4249,13 +4249,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C121" t="inlineStr">
         <is>
           <t>2012-3</t>
         </is>
-      </c>
-      <c r="C121" t="n">
-        <v>16.6</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -4285,13 +4285,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="C122" t="inlineStr">
         <is>
           <t>2012-4</t>
         </is>
-      </c>
-      <c r="C122" t="n">
-        <v>80.2</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -4321,13 +4321,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C123" t="inlineStr">
         <is>
           <t>2012-5</t>
         </is>
-      </c>
-      <c r="C123" t="n">
-        <v>17.6</v>
       </c>
       <c r="D123" t="n">
         <v>3</v>
@@ -4357,13 +4357,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C124" t="inlineStr">
         <is>
           <t>2012-6</t>
         </is>
-      </c>
-      <c r="C124" t="n">
-        <v>15.6</v>
       </c>
       <c r="D124" t="n">
         <v>6</v>
@@ -4393,13 +4393,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C125" t="inlineStr">
         <is>
           <t>2012-7</t>
         </is>
-      </c>
-      <c r="C125" t="n">
-        <v>34.4</v>
       </c>
       <c r="D125" t="n">
         <v>9</v>
@@ -4429,13 +4429,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C126" t="inlineStr">
         <is>
           <t>2012-8</t>
         </is>
-      </c>
-      <c r="C126" t="n">
-        <v>3.2</v>
       </c>
       <c r="D126" t="n">
         <v>13</v>
@@ -4465,13 +4465,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C127" t="inlineStr">
         <is>
           <t>2012-9</t>
         </is>
-      </c>
-      <c r="C127" t="n">
-        <v>25.8</v>
       </c>
       <c r="D127" t="n">
         <v>3</v>
@@ -4501,13 +4501,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C128" t="inlineStr">
         <is>
           <t>2012-10</t>
         </is>
-      </c>
-      <c r="C128" t="n">
-        <v>29.2</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -4537,13 +4537,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="C129" t="inlineStr">
         <is>
           <t>2012-11</t>
         </is>
-      </c>
-      <c r="C129" t="n">
-        <v>40.8</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -4573,13 +4573,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C130" t="inlineStr">
         <is>
           <t>2012-12</t>
         </is>
-      </c>
-      <c r="C130" t="n">
-        <v>18.8</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -4609,13 +4609,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="C131" t="inlineStr">
         <is>
           <t>2012-13</t>
         </is>
-      </c>
-      <c r="C131" t="n">
-        <v>296.8</v>
       </c>
       <c r="D131" t="n">
         <v>34</v>
@@ -4645,13 +4645,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="C132" t="inlineStr">
         <is>
           <t>2013-1</t>
         </is>
-      </c>
-      <c r="C132" t="n">
-        <v>41.6</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -4681,13 +4681,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" t="n">
+        <v>27</v>
+      </c>
+      <c r="C133" t="inlineStr">
         <is>
           <t>2013-2</t>
         </is>
-      </c>
-      <c r="C133" t="n">
-        <v>27</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -4717,13 +4717,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C134" t="inlineStr">
         <is>
           <t>2013-3</t>
         </is>
-      </c>
-      <c r="C134" t="n">
-        <v>99.59999999999999</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -4753,13 +4753,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" t="n">
+        <v>27</v>
+      </c>
+      <c r="C135" t="inlineStr">
         <is>
           <t>2013-4</t>
         </is>
-      </c>
-      <c r="C135" t="n">
-        <v>27</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -4789,13 +4789,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C136" t="inlineStr">
         <is>
           <t>2013-5</t>
         </is>
-      </c>
-      <c r="C136" t="n">
-        <v>23.4</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -4825,13 +4825,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B137" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C137" t="inlineStr">
         <is>
           <t>2013-6</t>
         </is>
-      </c>
-      <c r="C137" t="n">
-        <v>19.3</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -4861,13 +4861,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B138" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C138" t="inlineStr">
         <is>
           <t>2013-7</t>
         </is>
-      </c>
-      <c r="C138" t="n">
-        <v>9.6</v>
       </c>
       <c r="D138" t="n">
         <v>23</v>
@@ -4897,13 +4897,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C139" t="inlineStr">
         <is>
           <t>2013-8</t>
         </is>
-      </c>
-      <c r="C139" t="n">
-        <v>2.2</v>
       </c>
       <c r="D139" t="n">
         <v>16</v>
@@ -4933,13 +4933,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="C140" t="inlineStr">
         <is>
           <t>2013-9</t>
         </is>
-      </c>
-      <c r="C140" t="n">
-        <v>44.6</v>
       </c>
       <c r="D140" t="n">
         <v>2</v>
@@ -4969,13 +4969,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" t="n">
+        <v>55</v>
+      </c>
+      <c r="C141" t="inlineStr">
         <is>
           <t>2013-10</t>
         </is>
-      </c>
-      <c r="C141" t="n">
-        <v>55</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -5005,13 +5005,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C142" t="inlineStr">
         <is>
           <t>2013-11</t>
         </is>
-      </c>
-      <c r="C142" t="n">
-        <v>4.2</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -5041,13 +5041,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="C143" t="inlineStr">
         <is>
           <t>2013-12</t>
         </is>
-      </c>
-      <c r="C143" t="n">
-        <v>53.6</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -5077,13 +5077,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" t="n">
+        <v>407.1</v>
+      </c>
+      <c r="C144" t="inlineStr">
         <is>
           <t>2013-13</t>
         </is>
-      </c>
-      <c r="C144" t="n">
-        <v>407.1</v>
       </c>
       <c r="D144" t="n">
         <v>42</v>
@@ -5113,13 +5113,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="C145" t="inlineStr">
         <is>
           <t>2014-1</t>
         </is>
-      </c>
-      <c r="C145" t="n">
-        <v>53.6</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -5149,13 +5149,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t>2014-2</t>
         </is>
-      </c>
-      <c r="C146" t="n">
-        <v>57.4</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -5185,13 +5185,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B147" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C147" t="inlineStr">
         <is>
           <t>2014-3</t>
         </is>
-      </c>
-      <c r="C147" t="n">
-        <v>15.6</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -5221,13 +5221,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B148" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C148" t="inlineStr">
         <is>
           <t>2014-4</t>
         </is>
-      </c>
-      <c r="C148" t="n">
-        <v>30.6</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -5257,13 +5257,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C149" t="inlineStr">
         <is>
           <t>2014-5</t>
         </is>
-      </c>
-      <c r="C149" t="n">
-        <v>23.6</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -5293,13 +5293,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C150" t="inlineStr">
         <is>
           <t>2014-6</t>
         </is>
-      </c>
-      <c r="C150" t="n">
-        <v>11.6</v>
       </c>
       <c r="D150" t="n">
         <v>3</v>
@@ -5329,13 +5329,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B151" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C151" t="inlineStr">
         <is>
           <t>2014-7</t>
         </is>
-      </c>
-      <c r="C151" t="n">
-        <v>23.2</v>
       </c>
       <c r="D151" t="n">
         <v>10</v>
@@ -5365,13 +5365,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B152" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C152" t="inlineStr">
         <is>
           <t>2014-8</t>
         </is>
-      </c>
-      <c r="C152" t="n">
-        <v>0.4</v>
       </c>
       <c r="D152" t="n">
         <v>6</v>
@@ -5401,13 +5401,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C153" t="inlineStr">
         <is>
           <t>2014-9</t>
         </is>
-      </c>
-      <c r="C153" t="n">
-        <v>34.2</v>
       </c>
       <c r="D153" t="n">
         <v>3</v>
@@ -5437,13 +5437,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B154" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="C154" t="inlineStr">
         <is>
           <t>2014-10</t>
         </is>
-      </c>
-      <c r="C154" t="n">
-        <v>38.4</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -5473,13 +5473,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="C155" t="inlineStr">
         <is>
           <t>2014-11</t>
         </is>
-      </c>
-      <c r="C155" t="n">
-        <v>86.3</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -5509,13 +5509,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B156" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C156" t="inlineStr">
         <is>
           <t>2014-12</t>
         </is>
-      </c>
-      <c r="C156" t="n">
-        <v>14.4</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -5545,13 +5545,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B157" t="n">
+        <v>389.3</v>
+      </c>
+      <c r="C157" t="inlineStr">
         <is>
           <t>2014-13</t>
         </is>
-      </c>
-      <c r="C157" t="n">
-        <v>389.3</v>
       </c>
       <c r="D157" t="n">
         <v>22</v>
@@ -5581,13 +5581,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C158" t="inlineStr">
         <is>
           <t>2015-1</t>
         </is>
-      </c>
-      <c r="C158" t="n">
-        <v>34.8</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -5617,13 +5617,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C159" t="inlineStr">
         <is>
           <t>2015-2</t>
         </is>
-      </c>
-      <c r="C159" t="n">
-        <v>17.4</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -5653,13 +5653,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" t="n">
+        <v>20</v>
+      </c>
+      <c r="C160" t="inlineStr">
         <is>
           <t>2015-3</t>
         </is>
-      </c>
-      <c r="C160" t="n">
-        <v>20</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -5689,13 +5689,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C161" t="inlineStr">
         <is>
           <t>2015-4</t>
         </is>
-      </c>
-      <c r="C161" t="n">
-        <v>42.2</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -5725,13 +5725,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C162" t="inlineStr">
         <is>
           <t>2015-5</t>
         </is>
-      </c>
-      <c r="C162" t="n">
-        <v>4.2</v>
       </c>
       <c r="D162" t="n">
         <v>3</v>
@@ -5761,13 +5761,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" t="n">
+        <v>48</v>
+      </c>
+      <c r="C163" t="inlineStr">
         <is>
           <t>2015-6</t>
         </is>
-      </c>
-      <c r="C163" t="n">
-        <v>48</v>
       </c>
       <c r="D163" t="n">
         <v>11</v>
@@ -5797,13 +5797,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B164" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C164" t="inlineStr">
         <is>
           <t>2015-7</t>
         </is>
-      </c>
-      <c r="C164" t="n">
-        <v>3.6</v>
       </c>
       <c r="D164" t="n">
         <v>25</v>
@@ -5833,13 +5833,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B165" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C165" t="inlineStr">
         <is>
           <t>2015-8</t>
         </is>
-      </c>
-      <c r="C165" t="n">
-        <v>7.8</v>
       </c>
       <c r="D165" t="n">
         <v>14</v>
@@ -5869,13 +5869,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B166" t="n">
+        <v>19</v>
+      </c>
+      <c r="C166" t="inlineStr">
         <is>
           <t>2015-9</t>
         </is>
-      </c>
-      <c r="C166" t="n">
-        <v>19</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -5905,13 +5905,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B167" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C167" t="inlineStr">
         <is>
           <t>2015-10</t>
         </is>
-      </c>
-      <c r="C167" t="n">
-        <v>16.8</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -5941,13 +5941,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B168" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C168" t="inlineStr">
         <is>
           <t>2015-11</t>
         </is>
-      </c>
-      <c r="C168" t="n">
-        <v>20.6</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -5975,13 +5975,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" t="n">
+        <v>13</v>
+      </c>
+      <c r="C169" t="inlineStr">
         <is>
           <t>2015-12</t>
         </is>
-      </c>
-      <c r="C169" t="n">
-        <v>13</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -6011,13 +6011,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" t="n">
+        <v>247.4</v>
+      </c>
+      <c r="C170" t="inlineStr">
         <is>
           <t>2015-13</t>
         </is>
-      </c>
-      <c r="C170" t="n">
-        <v>247.4</v>
       </c>
       <c r="D170" t="n">
         <v>53</v>
@@ -6045,13 +6045,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="C171" t="inlineStr">
         <is>
           <t>2016-1</t>
         </is>
-      </c>
-      <c r="C171" t="n">
-        <v>100.6</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -6081,13 +6081,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C172" t="inlineStr">
         <is>
           <t>2016-2</t>
         </is>
-      </c>
-      <c r="C172" t="n">
-        <v>38.8</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -6117,13 +6117,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" t="n">
+        <v>25</v>
+      </c>
+      <c r="C173" t="inlineStr">
         <is>
           <t>2016-3</t>
         </is>
-      </c>
-      <c r="C173" t="n">
-        <v>25</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -6153,13 +6153,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="C174" t="inlineStr">
         <is>
           <t>2016-4</t>
         </is>
-      </c>
-      <c r="C174" t="n">
-        <v>88.2</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -6189,13 +6189,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="C175" t="inlineStr">
         <is>
           <t>2016-5</t>
         </is>
-      </c>
-      <c r="C175" t="n">
-        <v>57.8</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -6225,13 +6225,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C176" t="inlineStr">
         <is>
           <t>2016-6</t>
         </is>
-      </c>
-      <c r="C176" t="n">
-        <v>9.4</v>
       </c>
       <c r="D176" t="n">
         <v>5</v>
@@ -6261,13 +6261,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C177" t="inlineStr">
         <is>
           <t>2016-7</t>
         </is>
-      </c>
-      <c r="C177" t="n">
-        <v>10.6</v>
       </c>
       <c r="D177" t="n">
         <v>22</v>
@@ -6297,13 +6297,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C178" t="inlineStr">
         <is>
           <t>2016-8</t>
         </is>
-      </c>
-      <c r="C178" t="n">
-        <v>2.4</v>
       </c>
       <c r="D178" t="n">
         <v>20</v>
@@ -6333,13 +6333,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C179" t="inlineStr">
         <is>
           <t>2016-9</t>
         </is>
-      </c>
-      <c r="C179" t="n">
-        <v>6.8</v>
       </c>
       <c r="D179" t="n">
         <v>9</v>
@@ -6367,13 +6367,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C180" t="inlineStr">
         <is>
           <t>2016-10</t>
         </is>
-      </c>
-      <c r="C180" t="n">
-        <v>24.2</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -6403,13 +6403,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" t="n">
+        <v>52</v>
+      </c>
+      <c r="C181" t="inlineStr">
         <is>
           <t>2016-11</t>
         </is>
-      </c>
-      <c r="C181" t="n">
-        <v>52</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -6439,13 +6439,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C182" t="inlineStr">
         <is>
           <t>2016-12</t>
         </is>
-      </c>
-      <c r="C182" t="n">
-        <v>7.4</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -6475,13 +6475,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" t="n">
+        <v>423.2</v>
+      </c>
+      <c r="C183" t="inlineStr">
         <is>
           <t>2016-13</t>
         </is>
-      </c>
-      <c r="C183" t="n">
-        <v>423.2</v>
       </c>
       <c r="D183" t="n">
         <v>56</v>
@@ -6509,13 +6509,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C184" t="inlineStr">
         <is>
           <t>2017-1</t>
         </is>
-      </c>
-      <c r="C184" t="n">
-        <v>10.2</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -6545,13 +6545,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C185" t="inlineStr">
         <is>
           <t>2017-2</t>
         </is>
-      </c>
-      <c r="C185" t="n">
-        <v>26.4</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C186" t="inlineStr">
         <is>
           <t>2017-3</t>
         </is>
-      </c>
-      <c r="C186" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -6617,13 +6617,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C187" t="inlineStr">
         <is>
           <t>2017-4</t>
         </is>
-      </c>
-      <c r="C187" t="n">
-        <v>2.4</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -6653,13 +6653,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C188" t="inlineStr">
         <is>
           <t>2017-5</t>
         </is>
-      </c>
-      <c r="C188" t="n">
-        <v>32.8</v>
       </c>
       <c r="D188" t="n">
         <v>3</v>
@@ -6689,13 +6689,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C189" t="inlineStr">
         <is>
           <t>2017-6</t>
         </is>
-      </c>
-      <c r="C189" t="n">
-        <v>25.6</v>
       </c>
       <c r="D189" t="n">
         <v>16</v>
@@ -6725,13 +6725,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C190" t="inlineStr">
         <is>
           <t>2017-7</t>
         </is>
-      </c>
-      <c r="C190" t="n">
-        <v>43.2</v>
       </c>
       <c r="D190" t="n">
         <v>16</v>
@@ -6761,13 +6761,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B191" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="C191" t="inlineStr">
         <is>
           <t>2017-8</t>
         </is>
-      </c>
-      <c r="C191" t="n">
-        <v>32.2</v>
       </c>
       <c r="D191" t="n">
         <v>19</v>
@@ -6797,13 +6797,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B192" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C192" t="inlineStr">
         <is>
           <t>2017-9</t>
         </is>
-      </c>
-      <c r="C192" t="n">
-        <v>0.4</v>
       </c>
       <c r="D192" t="n">
         <v>1</v>
@@ -6833,13 +6833,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C193" t="inlineStr">
         <is>
           <t>2017-10</t>
         </is>
-      </c>
-      <c r="C193" t="n">
-        <v>8.4</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
@@ -6869,13 +6869,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C194" t="inlineStr">
         <is>
           <t>2017-11</t>
         </is>
-      </c>
-      <c r="C194" t="n">
-        <v>13.6</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -6905,13 +6905,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C195" t="inlineStr">
         <is>
           <t>2017-12</t>
         </is>
-      </c>
-      <c r="C195" t="n">
-        <v>27.2</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -6941,13 +6941,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" t="n">
+        <v>231.2</v>
+      </c>
+      <c r="C196" t="inlineStr">
         <is>
           <t>2017-13</t>
         </is>
-      </c>
-      <c r="C196" t="n">
-        <v>231.2</v>
       </c>
       <c r="D196" t="n">
         <v>55</v>
@@ -6977,13 +6977,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C197" t="inlineStr">
         <is>
           <t>2018-1</t>
         </is>
-      </c>
-      <c r="C197" t="n">
-        <v>49.4</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -7013,13 +7013,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C198" t="inlineStr">
         <is>
           <t>2018-2</t>
         </is>
-      </c>
-      <c r="C198" t="n">
-        <v>40.6</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -7049,13 +7049,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" t="n">
+        <v>93</v>
+      </c>
+      <c r="C199" t="inlineStr">
         <is>
           <t>2018-3</t>
         </is>
-      </c>
-      <c r="C199" t="n">
-        <v>93</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -7085,13 +7085,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B200" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="C200" t="inlineStr">
         <is>
           <t>2018-4</t>
         </is>
-      </c>
-      <c r="C200" t="n">
-        <v>72.40000000000001</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -7121,13 +7121,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B201" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="C201" t="inlineStr">
         <is>
           <t>2018-5</t>
         </is>
-      </c>
-      <c r="C201" t="n">
-        <v>111.6</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
@@ -7157,13 +7157,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B202" t="n">
+        <v>36</v>
+      </c>
+      <c r="C202" t="inlineStr">
         <is>
           <t>2018-6</t>
         </is>
-      </c>
-      <c r="C202" t="n">
-        <v>36</v>
       </c>
       <c r="D202" t="n">
         <v>6</v>
@@ -7193,13 +7193,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B203" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C203" t="inlineStr">
         <is>
           <t>2018-7</t>
         </is>
-      </c>
-      <c r="C203" t="n">
-        <v>15.4</v>
       </c>
       <c r="D203" t="n">
         <v>12</v>
@@ -7229,13 +7229,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" t="n">
+        <v>0</v>
+      </c>
+      <c r="C204" t="inlineStr">
         <is>
           <t>2018-8</t>
         </is>
-      </c>
-      <c r="C204" t="n">
-        <v>0</v>
       </c>
       <c r="D204" t="n">
         <v>17</v>
@@ -7265,13 +7265,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B205" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C205" t="inlineStr">
         <is>
           <t>2018-9</t>
         </is>
-      </c>
-      <c r="C205" t="n">
-        <v>11.4</v>
       </c>
       <c r="D205" t="n">
         <v>5</v>
@@ -7301,13 +7301,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B206" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C206" t="inlineStr">
         <is>
           <t>2018-10</t>
         </is>
-      </c>
-      <c r="C206" t="n">
-        <v>22.6</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
@@ -7337,13 +7337,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B207" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="C207" t="inlineStr">
         <is>
           <t>2018-11</t>
         </is>
-      </c>
-      <c r="C207" t="n">
-        <v>61.6</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -7373,13 +7373,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B208" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C208" t="inlineStr">
         <is>
           <t>2018-12</t>
         </is>
-      </c>
-      <c r="C208" t="n">
-        <v>13.6</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -7409,13 +7409,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B209" t="n">
+        <v>527.6</v>
+      </c>
+      <c r="C209" t="inlineStr">
         <is>
           <t>2018-13</t>
         </is>
-      </c>
-      <c r="C209" t="n">
-        <v>527.6</v>
       </c>
       <c r="D209" t="n">
         <v>40</v>
@@ -7445,13 +7445,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C210" t="inlineStr">
         <is>
           <t>2019-1</t>
         </is>
-      </c>
-      <c r="C210" t="n">
-        <v>23.4</v>
       </c>
       <c r="D210" t="n">
         <v>0</v>
@@ -7481,13 +7481,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C211" t="inlineStr">
         <is>
           <t>2019-2</t>
         </is>
-      </c>
-      <c r="C211" t="n">
-        <v>1.4</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -7517,13 +7517,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C212" t="inlineStr">
         <is>
           <t>2019-3</t>
         </is>
-      </c>
-      <c r="C212" t="n">
-        <v>10.6</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
@@ -7553,13 +7553,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C213" t="inlineStr">
         <is>
           <t>2019-4</t>
         </is>
-      </c>
-      <c r="C213" t="n">
-        <v>46.2</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
@@ -7589,13 +7589,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C214" t="inlineStr">
         <is>
           <t>2019-5</t>
         </is>
-      </c>
-      <c r="C214" t="n">
-        <v>3.6</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
@@ -7625,13 +7625,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" t="n">
+        <v>24</v>
+      </c>
+      <c r="C215" t="inlineStr">
         <is>
           <t>2019-6</t>
         </is>
-      </c>
-      <c r="C215" t="n">
-        <v>24</v>
       </c>
       <c r="D215" t="n">
         <v>10</v>
@@ -7661,13 +7661,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C216" t="inlineStr">
         <is>
           <t>2019-7</t>
         </is>
-      </c>
-      <c r="C216" t="n">
-        <v>12.6</v>
       </c>
       <c r="D216" t="n">
         <v>20</v>
@@ -7697,13 +7697,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C217" t="inlineStr">
         <is>
           <t>2019-8</t>
         </is>
-      </c>
-      <c r="C217" t="n">
-        <v>18.8</v>
       </c>
       <c r="D217" t="n">
         <v>17</v>
@@ -7733,13 +7733,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C218" t="inlineStr">
         <is>
           <t>2019-9</t>
         </is>
-      </c>
-      <c r="C218" t="n">
-        <v>29.8</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -7769,13 +7769,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" t="n">
+        <v>45</v>
+      </c>
+      <c r="C219" t="inlineStr">
         <is>
           <t>2019-10</t>
         </is>
-      </c>
-      <c r="C219" t="n">
-        <v>45</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -7805,13 +7805,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" t="n">
+        <v>48</v>
+      </c>
+      <c r="C220" t="inlineStr">
         <is>
           <t>2019-11</t>
         </is>
-      </c>
-      <c r="C220" t="n">
-        <v>48</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
@@ -7841,13 +7841,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="C221" t="inlineStr">
         <is>
           <t>2019-12</t>
         </is>
-      </c>
-      <c r="C221" t="n">
-        <v>63.4</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -7877,13 +7877,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" t="n">
+        <v>326.8</v>
+      </c>
+      <c r="C222" t="inlineStr">
         <is>
           <t>2019-13</t>
         </is>
-      </c>
-      <c r="C222" t="n">
-        <v>326.8</v>
       </c>
       <c r="D222" t="n">
         <v>47</v>
@@ -7913,13 +7913,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B223" t="n">
+        <v>16</v>
+      </c>
+      <c r="C223" t="inlineStr">
         <is>
           <t>2020-1</t>
         </is>
-      </c>
-      <c r="C223" t="n">
-        <v>16</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
@@ -7949,13 +7949,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B224" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C224" t="inlineStr">
         <is>
           <t>2020-2</t>
         </is>
-      </c>
-      <c r="C224" t="n">
-        <v>0.6</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -7985,13 +7985,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B225" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C225" t="inlineStr">
         <is>
           <t>2020-3</t>
         </is>
-      </c>
-      <c r="C225" t="n">
-        <v>30.6</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -8021,13 +8021,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="C226" t="inlineStr">
         <is>
           <t>2020-4</t>
         </is>
-      </c>
-      <c r="C226" t="n">
-        <v>86.8</v>
       </c>
       <c r="D226" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="C227" t="inlineStr">
         <is>
           <t>2020-5</t>
         </is>
-      </c>
-      <c r="C227" t="n">
-        <v>43.8</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
@@ -8093,13 +8093,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C228" t="inlineStr">
         <is>
           <t>2020-6</t>
         </is>
-      </c>
-      <c r="C228" t="n">
-        <v>18.6</v>
       </c>
       <c r="D228" t="n">
         <v>4</v>
@@ -8129,13 +8129,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B229" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C229" t="inlineStr">
         <is>
           <t>2020-7</t>
         </is>
-      </c>
-      <c r="C229" t="n">
-        <v>19.4</v>
       </c>
       <c r="D229" t="n">
         <v>19</v>
@@ -8165,13 +8165,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C230" t="inlineStr">
         <is>
           <t>2020-8</t>
         </is>
-      </c>
-      <c r="C230" t="n">
-        <v>14.2</v>
       </c>
       <c r="D230" t="n">
         <v>12</v>
@@ -8201,13 +8201,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C231" t="inlineStr">
         <is>
           <t>2020-9</t>
         </is>
-      </c>
-      <c r="C231" t="n">
-        <v>51.2</v>
       </c>
       <c r="D231" t="n">
         <v>4</v>
@@ -8237,13 +8237,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B232" t="n">
+        <v>64</v>
+      </c>
+      <c r="C232" t="inlineStr">
         <is>
           <t>2020-10</t>
         </is>
-      </c>
-      <c r="C232" t="n">
-        <v>64</v>
       </c>
       <c r="D232" t="n">
         <v>0</v>
@@ -8273,13 +8273,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C233" t="inlineStr">
         <is>
           <t>2020-11</t>
         </is>
-      </c>
-      <c r="C233" t="n">
-        <v>12.6</v>
       </c>
       <c r="D233" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="C234" t="inlineStr">
         <is>
           <t>2020-12</t>
         </is>
-      </c>
-      <c r="C234" t="n">
-        <v>40.2</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
@@ -8345,13 +8345,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" t="n">
+        <v>398</v>
+      </c>
+      <c r="C235" t="inlineStr">
         <is>
           <t>2020-13</t>
         </is>
-      </c>
-      <c r="C235" t="n">
-        <v>398</v>
       </c>
       <c r="D235" t="n">
         <v>39</v>
@@ -8381,13 +8381,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" t="n">
+        <v>20</v>
+      </c>
+      <c r="C236" t="inlineStr">
         <is>
           <t>2021-1</t>
         </is>
-      </c>
-      <c r="C236" t="n">
-        <v>20</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -8417,13 +8417,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="C237" t="inlineStr">
         <is>
           <t>2021-2</t>
         </is>
-      </c>
-      <c r="C237" t="n">
-        <v>45.6</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
@@ -8453,13 +8453,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B238" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C238" t="inlineStr">
         <is>
           <t>2021-3</t>
         </is>
-      </c>
-      <c r="C238" t="n">
-        <v>5.2</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
@@ -8489,13 +8489,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B239" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="C239" t="inlineStr">
         <is>
           <t>2021-4</t>
         </is>
-      </c>
-      <c r="C239" t="n">
-        <v>55.4</v>
       </c>
       <c r="D239" t="n">
         <v>0</v>
@@ -8525,13 +8525,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B240" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C240" t="inlineStr">
         <is>
           <t>2021-5</t>
         </is>
-      </c>
-      <c r="C240" t="n">
-        <v>21.8</v>
       </c>
       <c r="D240" t="n">
         <v>1</v>
@@ -8561,13 +8561,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B241" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="C241" t="inlineStr">
         <is>
           <t>2021-6</t>
         </is>
-      </c>
-      <c r="C241" t="n">
-        <v>52.4</v>
       </c>
       <c r="D241" t="n">
         <v>5</v>
@@ -8597,13 +8597,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B242" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C242" t="inlineStr">
         <is>
           <t>2021-7</t>
         </is>
-      </c>
-      <c r="C242" t="n">
-        <v>3.4</v>
       </c>
       <c r="D242" t="n">
         <v>17</v>
@@ -8633,13 +8633,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B243" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C243" t="inlineStr">
         <is>
           <t>2021-8</t>
         </is>
-      </c>
-      <c r="C243" t="n">
-        <v>9.800000000000001</v>
       </c>
       <c r="D243" t="n">
         <v>17</v>
@@ -8669,13 +8669,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B244" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C244" t="inlineStr">
         <is>
           <t>2021-9</t>
         </is>
-      </c>
-      <c r="C244" t="n">
-        <v>29.6</v>
       </c>
       <c r="D244" t="n">
         <v>3</v>
@@ -8705,13 +8705,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B245" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C245" t="inlineStr">
         <is>
           <t>2021-10</t>
         </is>
-      </c>
-      <c r="C245" t="n">
-        <v>30.4</v>
       </c>
       <c r="D245" t="n">
         <v>0</v>
@@ -8741,13 +8741,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="C246" t="inlineStr">
         <is>
           <t>2021-11</t>
         </is>
-      </c>
-      <c r="C246" t="n">
-        <v>33.4</v>
       </c>
       <c r="D246" t="n">
         <v>0</v>
@@ -8777,13 +8777,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C247" t="inlineStr">
         <is>
           <t>2021-12</t>
         </is>
-      </c>
-      <c r="C247" t="n">
-        <v>23.8</v>
       </c>
       <c r="D247" t="n">
         <v>0</v>
@@ -8813,13 +8813,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" t="n">
+        <v>330.8</v>
+      </c>
+      <c r="C248" t="inlineStr">
         <is>
           <t>2021-13</t>
         </is>
-      </c>
-      <c r="C248" t="n">
-        <v>330.8</v>
       </c>
       <c r="D248" t="n">
         <v>43</v>
@@ -8849,13 +8849,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C249" t="inlineStr">
         <is>
           <t>2022-1</t>
         </is>
-      </c>
-      <c r="C249" t="n">
-        <v>10.4</v>
       </c>
       <c r="D249" t="n">
         <v>0</v>
@@ -8885,13 +8885,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C250" t="inlineStr">
         <is>
           <t>2022-2</t>
         </is>
-      </c>
-      <c r="C250" t="n">
-        <v>5.4</v>
       </c>
       <c r="D250" t="n">
         <v>0</v>
@@ -8921,13 +8921,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="C251" t="inlineStr">
         <is>
           <t>2022-3</t>
         </is>
-      </c>
-      <c r="C251" t="n">
-        <v>53.6</v>
       </c>
       <c r="D251" t="n">
         <v>0</v>
@@ -8957,13 +8957,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C252" t="inlineStr">
         <is>
           <t>2022-4</t>
         </is>
-      </c>
-      <c r="C252" t="n">
-        <v>39.2</v>
       </c>
       <c r="D252" t="n">
         <v>0</v>
@@ -8993,13 +8993,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C253" t="inlineStr">
         <is>
           <t>2022-5</t>
         </is>
-      </c>
-      <c r="C253" t="n">
-        <v>3.4</v>
       </c>
       <c r="D253" t="n">
         <v>4</v>
@@ -9029,13 +9029,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" t="n">
+        <v>4</v>
+      </c>
+      <c r="C254" t="inlineStr">
         <is>
           <t>2022-6</t>
         </is>
-      </c>
-      <c r="C254" t="n">
-        <v>4</v>
       </c>
       <c r="D254" t="n">
         <v>9</v>
@@ -9065,13 +9065,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" t="n">
+        <v>0</v>
+      </c>
+      <c r="C255" t="inlineStr">
         <is>
           <t>2022-7</t>
         </is>
-      </c>
-      <c r="C255" t="n">
-        <v>0</v>
       </c>
       <c r="D255" t="n">
         <v>26</v>
@@ -9101,13 +9101,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" t="n">
+        <v>20</v>
+      </c>
+      <c r="C256" t="inlineStr">
         <is>
           <t>2022-8</t>
         </is>
-      </c>
-      <c r="C256" t="n">
-        <v>20</v>
       </c>
       <c r="D256" t="n">
         <v>19</v>
@@ -9137,13 +9137,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C257" t="inlineStr">
         <is>
           <t>2022-9</t>
         </is>
-      </c>
-      <c r="C257" t="n">
-        <v>5.4</v>
       </c>
       <c r="D257" t="n">
         <v>2</v>
@@ -9173,13 +9173,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B258" t="n">
+        <v>46</v>
+      </c>
+      <c r="C258" t="inlineStr">
         <is>
           <t>2022-10</t>
         </is>
-      </c>
-      <c r="C258" t="n">
-        <v>46</v>
       </c>
       <c r="D258" t="n">
         <v>0</v>
@@ -9209,13 +9209,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B259" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C259" t="inlineStr">
         <is>
           <t>2022-11</t>
         </is>
-      </c>
-      <c r="C259" t="n">
-        <v>54.8</v>
       </c>
       <c r="D259" t="n">
         <v>0</v>
@@ -9245,13 +9245,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="C260" t="inlineStr">
         <is>
           <t>2022-12</t>
         </is>
-      </c>
-      <c r="C260" t="n">
-        <v>68.8</v>
       </c>
       <c r="D260" t="n">
         <v>0</v>
@@ -9281,13 +9281,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" t="n">
+        <v>311</v>
+      </c>
+      <c r="C261" t="inlineStr">
         <is>
           <t>2022-13</t>
         </is>
-      </c>
-      <c r="C261" t="n">
-        <v>311</v>
       </c>
       <c r="D261" t="n">
         <v>60</v>
@@ -9317,13 +9317,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" t="n">
+        <v>24</v>
+      </c>
+      <c r="C262" t="inlineStr">
         <is>
           <t>2023-1</t>
         </is>
-      </c>
-      <c r="C262" t="n">
-        <v>24</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -9353,13 +9353,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B263" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C263" t="inlineStr">
         <is>
           <t>2023-2</t>
         </is>
-      </c>
-      <c r="C263" t="n">
-        <v>7.6</v>
       </c>
       <c r="D263" t="n">
         <v>0</v>
@@ -9389,13 +9389,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B264" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C264" t="inlineStr">
         <is>
           <t>2023-3</t>
         </is>
-      </c>
-      <c r="C264" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="D264" t="n">
         <v>0</v>
@@ -9425,13 +9425,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B265" t="n">
+        <v>8</v>
+      </c>
+      <c r="C265" t="inlineStr">
         <is>
           <t>2023-4</t>
         </is>
-      </c>
-      <c r="C265" t="n">
-        <v>8</v>
       </c>
       <c r="D265" t="n">
         <v>0</v>
@@ -9461,13 +9461,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B266" t="n">
+        <v>27</v>
+      </c>
+      <c r="C266" t="inlineStr">
         <is>
           <t>2023-5</t>
         </is>
-      </c>
-      <c r="C266" t="n">
-        <v>27</v>
       </c>
       <c r="D266" t="n">
         <v>0</v>
@@ -9497,12 +9497,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr">
         <is>
           <t>2023-6</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr"/>
@@ -9521,12 +9521,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr">
         <is>
           <t>2023-7</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
@@ -9545,13 +9545,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B269" t="n">
+        <v>0</v>
+      </c>
+      <c r="C269" t="inlineStr">
         <is>
           <t>2023-8</t>
         </is>
-      </c>
-      <c r="C269" t="n">
-        <v>0</v>
       </c>
       <c r="D269" t="n">
         <v>22</v>
@@ -9581,13 +9581,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B270" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="C270" t="inlineStr">
         <is>
           <t>2023-9</t>
         </is>
-      </c>
-      <c r="C270" t="n">
-        <v>95.59999999999999</v>
       </c>
       <c r="D270" t="n">
         <v>2</v>
@@ -9617,13 +9617,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B271" t="n">
+        <v>99</v>
+      </c>
+      <c r="C271" t="inlineStr">
         <is>
           <t>2023-10</t>
         </is>
-      </c>
-      <c r="C271" t="n">
-        <v>99</v>
       </c>
       <c r="D271" t="n">
         <v>7</v>
@@ -9653,13 +9653,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr">
+      <c r="B272" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="C272" t="inlineStr">
         <is>
           <t>2023-11</t>
         </is>
-      </c>
-      <c r="C272" t="n">
-        <v>63.8</v>
       </c>
       <c r="D272" t="n">
         <v>0</v>
@@ -9689,13 +9689,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="B273" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="C273" t="inlineStr">
         <is>
           <t>2023-12</t>
         </is>
-      </c>
-      <c r="C273" t="n">
-        <v>18.4</v>
       </c>
       <c r="D273" t="n">
         <v>0</v>
@@ -9725,12 +9725,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr">
         <is>
           <t>2023-13</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr"/>
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
@@ -9749,13 +9749,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B275" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="C275" t="inlineStr">
         <is>
           <t>2024-1</t>
         </is>
-      </c>
-      <c r="C275" t="n">
-        <v>59.8</v>
       </c>
       <c r="D275" t="n">
         <v>0</v>
@@ -9785,13 +9785,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C276" t="inlineStr">
         <is>
           <t>2024-2</t>
         </is>
-      </c>
-      <c r="C276" t="n">
-        <v>25.6</v>
       </c>
       <c r="D276" t="n">
         <v>0</v>
@@ -9821,13 +9821,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr">
+      <c r="B277" t="n">
+        <v>65</v>
+      </c>
+      <c r="C277" t="inlineStr">
         <is>
           <t>2024-3</t>
         </is>
-      </c>
-      <c r="C277" t="n">
-        <v>65</v>
       </c>
       <c r="D277" t="n">
         <v>0</v>
@@ -9857,13 +9857,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="B278" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C278" t="inlineStr">
         <is>
           <t>2024-4</t>
         </is>
-      </c>
-      <c r="C278" t="n">
-        <v>17.4</v>
       </c>
       <c r="D278" t="n">
         <v>0</v>
@@ -9893,13 +9893,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="B279" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C279" t="inlineStr">
         <is>
           <t>2024-5</t>
         </is>
-      </c>
-      <c r="C279" t="n">
-        <v>46.2</v>
       </c>
       <c r="D279" t="n">
         <v>0</v>
@@ -9929,12 +9929,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="B280" t="inlineStr"/>
+      <c r="C280" t="inlineStr">
         <is>
           <t>2024-6</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr"/>
       <c r="D280" t="n">
         <v>7</v>
       </c>
@@ -9963,13 +9963,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="B281" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C281" t="inlineStr">
         <is>
           <t>2024-7</t>
         </is>
-      </c>
-      <c r="C281" t="n">
-        <v>8.199999999999999</v>
       </c>
       <c r="D281" t="n">
         <v>22</v>
@@ -9999,13 +9999,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="B282" t="n">
+        <v>31</v>
+      </c>
+      <c r="C282" t="inlineStr">
         <is>
           <t>2024-8</t>
         </is>
-      </c>
-      <c r="C282" t="n">
-        <v>31</v>
       </c>
       <c r="D282" t="n">
         <v>21</v>
@@ -10035,13 +10035,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="B283" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C283" t="inlineStr">
         <is>
           <t>2024-9</t>
         </is>
-      </c>
-      <c r="C283" t="n">
-        <v>26.4</v>
       </c>
       <c r="D283" t="n">
         <v>0</v>
@@ -10071,13 +10071,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="B284" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="C284" t="inlineStr">
         <is>
           <t>2024-10</t>
         </is>
-      </c>
-      <c r="C284" t="n">
-        <v>85.40000000000001</v>
       </c>
       <c r="D284" t="n">
         <v>0</v>
@@ -10107,13 +10107,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="B285" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C285" t="inlineStr">
         <is>
           <t>2024-11</t>
         </is>
-      </c>
-      <c r="C285" t="n">
-        <v>11.4</v>
       </c>
       <c r="D285" t="n">
         <v>0</v>
@@ -10143,13 +10143,13 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr">
+      <c r="B286" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C286" t="inlineStr">
         <is>
           <t>2024-12</t>
         </is>
-      </c>
-      <c r="C286" t="n">
-        <v>5.6</v>
       </c>
       <c r="D286" t="n">
         <v>0</v>
@@ -10179,12 +10179,12 @@
           <t>2166Y</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr">
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr">
         <is>
           <t>2024-13</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr"/>
       <c r="D287" t="n">
         <v>50</v>
       </c>
